--- a/Ashok/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Ashok/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Week1" sheetId="1" r:id="rId1"/>
     <sheet name="Week2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>SlNo</t>
   </si>
@@ -39,11 +39,26 @@
   <si>
     <t>SCHWALL WEEKLY TIMESHEET</t>
   </si>
+  <si>
+    <t>04.06.2021</t>
+  </si>
+  <si>
+    <t>05.06.2021</t>
+  </si>
+  <si>
+    <t>06.06.2021</t>
+  </si>
+  <si>
+    <t>Arraylist</t>
+  </si>
+  <si>
+    <t>Insert,Search,print,remove operation for Student details</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -539,19 +554,19 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.453125" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" customWidth="1"/>
-    <col min="5" max="5" width="44.90625" customWidth="1"/>
-    <col min="6" max="6" width="30.81640625" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+    <col min="5" max="5" width="44.88671875" customWidth="1"/>
+    <col min="6" max="6" width="30.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:6" ht="21" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:6" ht="21" x14ac:dyDescent="0.4">
       <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
@@ -560,7 +575,7 @@
       <c r="E2" s="11"/>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
@@ -577,994 +592,1012 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B4" s="2"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B5" s="2"/>
-      <c r="C5" s="1"/>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B6" s="2"/>
-      <c r="C6" s="1"/>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="2"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="2"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="2"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="2"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="2"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="2"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" s="2"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" s="2"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" s="2"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" s="2"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" s="2"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="2"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" s="2"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46" s="2"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B48" s="2"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B49" s="2"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50" s="2"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B51" s="2"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52" s="2"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53" s="2"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B54" s="2"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B55" s="2"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="3"/>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56" s="2"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B57" s="2"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B58" s="2"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B59" s="2"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B60" s="2"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="3"/>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B61" s="2"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B62" s="2"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="3"/>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B63" s="2"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="3"/>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B64" s="2"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="3"/>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65" s="2"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B66" s="2"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="3"/>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B67" s="2"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="3"/>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B68" s="2"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="3"/>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B69" s="2"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="3"/>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B70" s="2"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="3"/>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B71" s="2"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B72" s="2"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B73" s="2"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="3"/>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B74" s="2"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="3"/>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B75" s="2"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="3"/>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B76" s="2"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="3"/>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B77" s="2"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="3"/>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B78" s="2"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="3"/>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B79" s="2"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="3"/>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B80" s="2"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="3"/>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B81" s="2"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="3"/>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B82" s="2"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="3"/>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B83" s="2"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="3"/>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B84" s="2"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="3"/>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B85" s="2"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="3"/>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B86" s="2"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="3"/>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B87" s="2"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="3"/>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B88" s="2"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="3"/>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B89" s="2"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="3"/>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B90" s="2"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="3"/>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B91" s="2"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="3"/>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B92" s="2"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="3"/>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B93" s="2"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="3"/>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B94" s="2"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="3"/>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B95" s="2"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="3"/>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B96" s="2"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="3"/>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B97" s="2"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="3"/>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B98" s="2"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="3"/>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B99" s="2"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="3"/>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B100" s="2"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="3"/>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B101" s="2"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="3"/>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B102" s="2"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="3"/>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B103" s="2"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="3"/>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B104" s="2"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="3"/>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B105" s="2"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="3"/>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B106" s="2"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="3"/>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B107" s="2"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="3"/>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B108" s="2"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="3"/>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B109" s="2"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" s="3"/>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B110" s="2"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
       <c r="F110" s="3"/>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B111" s="2"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="3"/>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B112" s="2"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
       <c r="F112" s="3"/>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B113" s="2"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
       <c r="F113" s="3"/>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B114" s="2"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
       <c r="F114" s="3"/>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B115" s="2"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
       <c r="F115" s="3"/>
     </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B116" s="2"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
       <c r="F116" s="3"/>
     </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B117" s="2"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
       <c r="F117" s="3"/>
     </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B118" s="2"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
       <c r="F118" s="3"/>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B119" s="2"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
       <c r="F119" s="3"/>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B120" s="2"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
       <c r="F120" s="3"/>
     </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B121" s="2"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
       <c r="F121" s="3"/>
     </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B122" s="2"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B123" s="2"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
       <c r="F123" s="3"/>
     </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B124" s="2"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
       <c r="F124" s="3"/>
     </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B125" s="2"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
       <c r="F125" s="3"/>
     </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B126" s="2"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
       <c r="F126" s="3"/>
     </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B127" s="2"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
       <c r="F127" s="3"/>
     </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B128" s="2"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
       <c r="F128" s="3"/>
     </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B129" s="2"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
       <c r="F129" s="3"/>
     </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B130" s="2"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
       <c r="F130" s="3"/>
     </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B131" s="2"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
       <c r="F131" s="3"/>
     </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B132" s="2"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
       <c r="F132" s="3"/>
     </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B133" s="2"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
       <c r="F133" s="3"/>
     </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B134" s="2"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
       <c r="F134" s="3"/>
     </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B135" s="2"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
       <c r="F135" s="3"/>
     </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B136" s="2"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
       <c r="F136" s="3"/>
     </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B137" s="2"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
       <c r="F137" s="3"/>
     </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B138" s="2"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
       <c r="F138" s="3"/>
     </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B139" s="2"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
       <c r="F139" s="3"/>
     </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B140" s="2"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
       <c r="F140" s="3"/>
     </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B141" s="2"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
       <c r="F141" s="3"/>
     </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B142" s="2"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
       <c r="F142" s="3"/>
     </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B143" s="2"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
       <c r="F143" s="3"/>
     </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B144" s="2"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
       <c r="F144" s="3"/>
     </row>
-    <row r="145" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B145" s="4"/>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
@@ -1588,16 +1621,16 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.453125" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" customWidth="1"/>
-    <col min="5" max="5" width="44.90625" customWidth="1"/>
-    <col min="6" max="6" width="30.81640625" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+    <col min="5" max="5" width="44.88671875" customWidth="1"/>
+    <col min="6" max="6" width="30.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:6" ht="21" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:6" ht="21" x14ac:dyDescent="0.4">
       <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
@@ -1606,7 +1639,7 @@
       <c r="E2" s="11"/>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
@@ -1623,994 +1656,994 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="2"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="2"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="2"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="2"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="2"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="2"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" s="2"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" s="2"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" s="2"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" s="2"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" s="2"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="2"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" s="2"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46" s="2"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" s="2"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B48" s="2"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B49" s="2"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50" s="2"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B51" s="2"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52" s="2"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53" s="2"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B54" s="2"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B55" s="2"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="3"/>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56" s="2"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B57" s="2"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B58" s="2"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B59" s="2"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B60" s="2"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="3"/>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B61" s="2"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B62" s="2"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="3"/>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B63" s="2"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="3"/>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B64" s="2"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="3"/>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65" s="2"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B66" s="2"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="3"/>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B67" s="2"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="3"/>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B68" s="2"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="3"/>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B69" s="2"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="3"/>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B70" s="2"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="3"/>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B71" s="2"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B72" s="2"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B73" s="2"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="3"/>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B74" s="2"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="3"/>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B75" s="2"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="3"/>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B76" s="2"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="3"/>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B77" s="2"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="3"/>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B78" s="2"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="3"/>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B79" s="2"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="3"/>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B80" s="2"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="3"/>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B81" s="2"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="3"/>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B82" s="2"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="3"/>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B83" s="2"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="3"/>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B84" s="2"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="3"/>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B85" s="2"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="3"/>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B86" s="2"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="3"/>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B87" s="2"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="3"/>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B88" s="2"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="3"/>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B89" s="2"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="3"/>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B90" s="2"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="3"/>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B91" s="2"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="3"/>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B92" s="2"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="3"/>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B93" s="2"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="3"/>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B94" s="2"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="3"/>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B95" s="2"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="3"/>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B96" s="2"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="3"/>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B97" s="2"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="3"/>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B98" s="2"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="3"/>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B99" s="2"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="3"/>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B100" s="2"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="3"/>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B101" s="2"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="3"/>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B102" s="2"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="3"/>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B103" s="2"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="3"/>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B104" s="2"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="3"/>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B105" s="2"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="3"/>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B106" s="2"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="3"/>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B107" s="2"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="3"/>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B108" s="2"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="3"/>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B109" s="2"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" s="3"/>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B110" s="2"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
       <c r="F110" s="3"/>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B111" s="2"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="3"/>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B112" s="2"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
       <c r="F112" s="3"/>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B113" s="2"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
       <c r="F113" s="3"/>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B114" s="2"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
       <c r="F114" s="3"/>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B115" s="2"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
       <c r="F115" s="3"/>
     </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B116" s="2"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
       <c r="F116" s="3"/>
     </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B117" s="2"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
       <c r="F117" s="3"/>
     </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B118" s="2"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
       <c r="F118" s="3"/>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B119" s="2"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
       <c r="F119" s="3"/>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B120" s="2"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
       <c r="F120" s="3"/>
     </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B121" s="2"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
       <c r="F121" s="3"/>
     </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B122" s="2"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B123" s="2"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
       <c r="F123" s="3"/>
     </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B124" s="2"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
       <c r="F124" s="3"/>
     </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B125" s="2"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
       <c r="F125" s="3"/>
     </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B126" s="2"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
       <c r="F126" s="3"/>
     </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B127" s="2"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
       <c r="F127" s="3"/>
     </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B128" s="2"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
       <c r="F128" s="3"/>
     </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B129" s="2"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
       <c r="F129" s="3"/>
     </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B130" s="2"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
       <c r="F130" s="3"/>
     </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B131" s="2"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
       <c r="F131" s="3"/>
     </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B132" s="2"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
       <c r="F132" s="3"/>
     </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B133" s="2"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
       <c r="F133" s="3"/>
     </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B134" s="2"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
       <c r="F134" s="3"/>
     </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B135" s="2"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
       <c r="F135" s="3"/>
     </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B136" s="2"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
       <c r="F136" s="3"/>
     </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B137" s="2"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
       <c r="F137" s="3"/>
     </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B138" s="2"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
       <c r="F138" s="3"/>
     </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B139" s="2"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
       <c r="F139" s="3"/>
     </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B140" s="2"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
       <c r="F140" s="3"/>
     </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B141" s="2"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
       <c r="F141" s="3"/>
     </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B142" s="2"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
       <c r="F142" s="3"/>
     </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B143" s="2"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
       <c r="F143" s="3"/>
     </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B144" s="2"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
       <c r="F144" s="3"/>
     </row>
-    <row r="145" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B145" s="4"/>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>

--- a/Ashok/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Ashok/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>SlNo</t>
   </si>
@@ -41,12 +41,6 @@
   </si>
   <si>
     <t>04.06.2021</t>
-  </si>
-  <si>
-    <t>05.06.2021</t>
-  </si>
-  <si>
-    <t>06.06.2021</t>
   </si>
   <si>
     <t>Arraylist</t>
@@ -554,7 +548,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -600,33 +594,25 @@
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F4" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="2">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="2">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="3"/>

--- a/Ashok/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Ashok/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>SlNo</t>
   </si>
@@ -47,6 +47,36 @@
   </si>
   <si>
     <t>Insert,Search,print,remove operation for Student details</t>
+  </si>
+  <si>
+    <t>Java Training</t>
+  </si>
+  <si>
+    <t>Collection-Arraylist</t>
+  </si>
+  <si>
+    <t>BPMN Intro</t>
+  </si>
+  <si>
+    <t>Work flow daigram using Camunda</t>
+  </si>
+  <si>
+    <t>1hr</t>
+  </si>
+  <si>
+    <t>4hrs</t>
+  </si>
+  <si>
+    <t>2hrs30min</t>
+  </si>
+  <si>
+    <t>BPMN Task</t>
+  </si>
+  <si>
+    <t>Designed my 1st work flow using Camunda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2hrs </t>
   </si>
 </sst>
 </file>
@@ -548,7 +578,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -599,30 +629,48 @@
       <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="3">
-        <v>10</v>
+      <c r="F4" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="3"/>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="3"/>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="3"/>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>

--- a/Ashok/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Ashok/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>SlNo</t>
   </si>
@@ -77,6 +77,33 @@
   </si>
   <si>
     <t xml:space="preserve">2hrs </t>
+  </si>
+  <si>
+    <t>07.06.2021</t>
+  </si>
+  <si>
+    <t>BPMN Review</t>
+  </si>
+  <si>
+    <t>BPMN workflow Review</t>
+  </si>
+  <si>
+    <t>Hsh Map insert</t>
+  </si>
+  <si>
+    <t>BPMN Discussion</t>
+  </si>
+  <si>
+    <t>Modeled a workflow for cloud kitchen</t>
+  </si>
+  <si>
+    <t>Java Practice</t>
+  </si>
+  <si>
+    <t>Hash map concept  practiced</t>
+  </si>
+  <si>
+    <t>5hrs</t>
   </si>
 </sst>
 </file>
@@ -578,13 +605,13 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="11.44140625" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1"/>
     <col min="5" max="5" width="44.88671875" customWidth="1"/>
     <col min="6" max="6" width="30.77734375" customWidth="1"/>
   </cols>
@@ -673,32 +700,60 @@
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="2"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="3"/>
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="3"/>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="3"/>
+      <c r="D10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="3"/>
+      <c r="D11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>

--- a/Ashok/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Ashok/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
   <si>
     <t>SlNo</t>
   </si>
@@ -104,6 +104,24 @@
   </si>
   <si>
     <t>5hrs</t>
+  </si>
+  <si>
+    <t>08.06.2021</t>
+  </si>
+  <si>
+    <t>Array list doubt clarification &amp; Hash table</t>
+  </si>
+  <si>
+    <t>java practice</t>
+  </si>
+  <si>
+    <t>Hash table task practice</t>
+  </si>
+  <si>
+    <t>Html  basic recall</t>
+  </si>
+  <si>
+    <t>Html</t>
   </si>
 </sst>
 </file>
@@ -605,7 +623,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -756,25 +774,47 @@
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="2"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="3"/>
+      <c r="B12" s="2">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="3"/>
+      <c r="D13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="3"/>
+      <c r="D14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>

--- a/Ashok/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Ashok/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
   <si>
     <t>SlNo</t>
   </si>
@@ -122,6 +122,18 @@
   </si>
   <si>
     <t>Html</t>
+  </si>
+  <si>
+    <t>Java training</t>
+  </si>
+  <si>
+    <t>Basics in HTML &amp; CSS</t>
+  </si>
+  <si>
+    <t>Practice</t>
+  </si>
+  <si>
+    <t>Created a web using HTML</t>
   </si>
 </sst>
 </file>
@@ -623,7 +635,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -817,18 +829,34 @@
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="2"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="3"/>
+      <c r="B15" s="2">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1">
+        <v>9.0620209999999997</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="3"/>
+      <c r="D16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>

--- a/Ashok/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Ashok/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
   <si>
     <t>SlNo</t>
   </si>
@@ -134,6 +134,27 @@
   </si>
   <si>
     <t>Created a web using HTML</t>
+  </si>
+  <si>
+    <t>10.06.2021</t>
+  </si>
+  <si>
+    <t>BPM Session</t>
+  </si>
+  <si>
+    <t>Difference between old method &amp; BPM,jbpm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1hr30min </t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t>2hrs</t>
+  </si>
+  <si>
+    <t>creating menu in web page and linking many web pages</t>
   </si>
 </sst>
 </file>
@@ -635,7 +656,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -859,25 +880,47 @@
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="2"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="3"/>
+      <c r="B17" s="2">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="2"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="3"/>
+      <c r="D18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="2"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="3"/>
+      <c r="D19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>

--- a/Ashok/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Ashok/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
   <si>
     <t>SlNo</t>
   </si>
@@ -155,6 +155,12 @@
   </si>
   <si>
     <t>creating menu in web page and linking many web pages</t>
+  </si>
+  <si>
+    <t>Java Revision</t>
+  </si>
+  <si>
+    <t>Recall Core java concept</t>
   </si>
 </sst>
 </file>
@@ -656,7 +662,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -925,9 +931,15 @@
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="2"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="3"/>
+      <c r="D20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>

--- a/Ashok/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Ashok/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
   <si>
     <t>SlNo</t>
   </si>
@@ -161,6 +161,15 @@
   </si>
   <si>
     <t>Recall Core java concept</t>
+  </si>
+  <si>
+    <t>11.06.2021</t>
+  </si>
+  <si>
+    <t>Collection concept</t>
+  </si>
+  <si>
+    <t>Web page,java concept recall</t>
   </si>
 </sst>
 </file>
@@ -662,7 +671,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -942,18 +951,34 @@
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="2"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="3"/>
+      <c r="B21" s="2">
+        <v>6</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="3"/>
+      <c r="D22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>

--- a/Ashok/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Ashok/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="60">
   <si>
     <t>SlNo</t>
   </si>
@@ -170,6 +170,36 @@
   </si>
   <si>
     <t>Web page,java concept recall</t>
+  </si>
+  <si>
+    <t>14.06.2021</t>
+  </si>
+  <si>
+    <t>Tomcat installation,Introduction to Tomcat</t>
+  </si>
+  <si>
+    <t>2.5hrs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J2EE Video </t>
+  </si>
+  <si>
+    <t>Video reference for J2EE basics</t>
+  </si>
+  <si>
+    <t>Meeting</t>
+  </si>
+  <si>
+    <t>Discussion</t>
+  </si>
+  <si>
+    <t>Recall core java</t>
+  </si>
+  <si>
+    <t>0.5hr</t>
+  </si>
+  <si>
+    <t>Exception handling,Abstraction,Interfaces</t>
   </si>
 </sst>
 </file>
@@ -671,13 +701,13 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="11.44140625" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
     <col min="5" max="5" width="44.88671875" customWidth="1"/>
     <col min="6" max="6" width="30.77734375" customWidth="1"/>
   </cols>
@@ -981,32 +1011,60 @@
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="2"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="3"/>
+      <c r="B23" s="2">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="3"/>
+      <c r="D24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="3"/>
+      <c r="D25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="3"/>
+      <c r="D26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>

--- a/Ashok/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Ashok/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="65">
   <si>
     <t>SlNo</t>
   </si>
@@ -200,6 +200,21 @@
   </si>
   <si>
     <t>Exception handling,Abstraction,Interfaces</t>
+  </si>
+  <si>
+    <t>15.06.2021</t>
+  </si>
+  <si>
+    <t>Meeting Bharanidharan sir</t>
+  </si>
+  <si>
+    <t>Threads</t>
+  </si>
+  <si>
+    <t>Keywords</t>
+  </si>
+  <si>
+    <t>1.5hrs</t>
   </si>
 </sst>
 </file>
@@ -700,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1067,32 +1082,58 @@
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="2"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="3"/>
+      <c r="B27" s="2">
+        <v>8</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="3"/>
+      <c r="D28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="2"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="3"/>
+      <c r="D29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="3"/>
+      <c r="E30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>

--- a/Ashok/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Ashok/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="72">
   <si>
     <t>SlNo</t>
   </si>
@@ -215,6 +215,27 @@
   </si>
   <si>
     <t>1.5hrs</t>
+  </si>
+  <si>
+    <t>16..06.2021</t>
+  </si>
+  <si>
+    <t>BPMN overview-2 cancelled</t>
+  </si>
+  <si>
+    <t>java Internal Training</t>
+  </si>
+  <si>
+    <t>Overview of HTML,CSS,Tread in java</t>
+  </si>
+  <si>
+    <t>Self learning</t>
+  </si>
+  <si>
+    <t>Servlet basics</t>
+  </si>
+  <si>
+    <t>video Tutorials</t>
   </si>
 </sst>
 </file>
@@ -715,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1136,32 +1157,58 @@
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="2"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="3"/>
+      <c r="B31" s="2">
+        <v>9</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="3"/>
+      <c r="D32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="3"/>
+      <c r="D33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="2"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="3"/>
+      <c r="E34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="2"/>

--- a/Ashok/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Ashok/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="80">
   <si>
     <t>SlNo</t>
   </si>
@@ -236,6 +236,30 @@
   </si>
   <si>
     <t>video Tutorials</t>
+  </si>
+  <si>
+    <t>17.06.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exception Handling </t>
+  </si>
+  <si>
+    <t>BPM</t>
+  </si>
+  <si>
+    <t>Tools in BPM</t>
+  </si>
+  <si>
+    <t>JBPM</t>
+  </si>
+  <si>
+    <t>Installation and setup</t>
+  </si>
+  <si>
+    <t>java concepts</t>
+  </si>
+  <si>
+    <t>3hrs</t>
   </si>
 </sst>
 </file>
@@ -737,7 +761,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1211,32 +1235,60 @@
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="2"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="3"/>
+      <c r="B35" s="2">
+        <v>10</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="2"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="3"/>
+      <c r="D36" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="2"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="3"/>
+      <c r="D37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" s="2"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="3"/>
+      <c r="D38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" s="2"/>

--- a/Ashok/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Ashok/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="93">
   <si>
     <t>SlNo</t>
   </si>
@@ -260,6 +260,45 @@
   </si>
   <si>
     <t>3hrs</t>
+  </si>
+  <si>
+    <t>18.06.2021</t>
+  </si>
+  <si>
+    <t>Iterator,Collection,Arraylist</t>
+  </si>
+  <si>
+    <t>Demo,JBPM Installation</t>
+  </si>
+  <si>
+    <t>Project Allocation</t>
+  </si>
+  <si>
+    <t>Camunda meeting</t>
+  </si>
+  <si>
+    <t>Camunda Task</t>
+  </si>
+  <si>
+    <t>Prerequestiee</t>
+  </si>
+  <si>
+    <t>Java Task</t>
+  </si>
+  <si>
+    <t>String using Iteration</t>
+  </si>
+  <si>
+    <t>19.06.2021</t>
+  </si>
+  <si>
+    <t>Camunda Training</t>
+  </si>
+  <si>
+    <t>Topic discussion,camunda overview,Task deployment</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -760,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1291,60 +1330,114 @@
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B39" s="2"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="3"/>
+      <c r="B39" s="2">
+        <v>11</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" s="2"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="3"/>
+      <c r="D40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" s="2"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="3"/>
+      <c r="D41" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" s="2"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="3"/>
+      <c r="D42" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="2"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
+      <c r="D43" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="E43" s="1"/>
-      <c r="F43" s="3"/>
+      <c r="F43" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" s="2"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="3"/>
+      <c r="D44" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" s="2"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="3"/>
+      <c r="D45" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B46" s="2"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="3"/>
+      <c r="B46" s="2">
+        <v>12</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" s="2"/>

--- a/Ashok/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Ashok/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="102">
   <si>
     <t>SlNo</t>
   </si>
@@ -298,7 +298,34 @@
     <t>Topic discussion,camunda overview,Task deployment</t>
   </si>
   <si>
-    <t>s</t>
+    <t>8hrs</t>
+  </si>
+  <si>
+    <t>20.06.2021</t>
+  </si>
+  <si>
+    <t>Service Task</t>
+  </si>
+  <si>
+    <t>Task completion</t>
+  </si>
+  <si>
+    <t>Worked on a given Task</t>
+  </si>
+  <si>
+    <t>21.06.2021</t>
+  </si>
+  <si>
+    <t>User Task, E-or gate way</t>
+  </si>
+  <si>
+    <t>Designing a model &amp; Deployement</t>
+  </si>
+  <si>
+    <t>Team Discussion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discussed with Team </t>
   </si>
 </sst>
 </file>
@@ -800,7 +827,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1440,38 +1467,74 @@
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B47" s="2"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="3"/>
+      <c r="B47" s="2">
+        <v>13</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B48" s="2"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="3"/>
+      <c r="D48" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B49" s="2"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="3"/>
+      <c r="B49" s="2">
+        <v>14</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50" s="2"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="3"/>
+      <c r="D50" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B51" s="2"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
+      <c r="D51" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="F51" s="3"/>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.3">

--- a/Ashok/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Ashok/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="110">
   <si>
     <t>SlNo</t>
   </si>
@@ -326,6 +326,30 @@
   </si>
   <si>
     <t xml:space="preserve">Discussed with Team </t>
+  </si>
+  <si>
+    <t>22.06.2021</t>
+  </si>
+  <si>
+    <t>message Task</t>
+  </si>
+  <si>
+    <t>Collections</t>
+  </si>
+  <si>
+    <t>Send Task,Receive Task</t>
+  </si>
+  <si>
+    <t>send vs service task,Script task</t>
+  </si>
+  <si>
+    <t>Difference between Send task vs service task &amp; script task</t>
+  </si>
+  <si>
+    <t>Java recall</t>
+  </si>
+  <si>
+    <t>watched recorded video for clarrification</t>
   </si>
 </sst>
 </file>
@@ -826,15 +850,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="11.44140625" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
-    <col min="5" max="5" width="44.88671875" customWidth="1"/>
+    <col min="4" max="4" width="27.77734375" customWidth="1"/>
+    <col min="5" max="5" width="52.5546875" customWidth="1"/>
     <col min="6" max="6" width="30.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1535,49 +1559,91 @@
       <c r="E51" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F51" s="3"/>
+      <c r="F51" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B52" s="2"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="3"/>
+      <c r="B52" s="2">
+        <v>15</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53" s="2"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="3"/>
+      <c r="D53" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B54" s="2"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="3"/>
+      <c r="D54" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B55" s="2"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="3"/>
+      <c r="D55" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56" s="2"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="3"/>
+      <c r="D56" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B57" s="2"/>
       <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="3"/>
+      <c r="D57" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B58" s="2"/>

--- a/Ashok/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Ashok/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="119">
   <si>
     <t>SlNo</t>
   </si>
@@ -350,6 +350,33 @@
   </si>
   <si>
     <t>watched recorded video for clarrification</t>
+  </si>
+  <si>
+    <t>23.06.2021</t>
+  </si>
+  <si>
+    <t>Call Activity</t>
+  </si>
+  <si>
+    <t>Collection Treeset</t>
+  </si>
+  <si>
+    <t>camunda Task</t>
+  </si>
+  <si>
+    <t>Sub Process Call Activity</t>
+  </si>
+  <si>
+    <t>Camunda video Recall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">java video </t>
+  </si>
+  <si>
+    <t>Task on collection</t>
+  </si>
+  <si>
+    <t>Sub Process</t>
   </si>
 </sst>
 </file>
@@ -850,8 +877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1646,53 +1673,99 @@
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B58" s="2"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="3"/>
+      <c r="B58" s="2">
+        <v>16</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B59" s="2"/>
       <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="3"/>
+      <c r="D59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B60" s="2"/>
       <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="3"/>
+      <c r="D60" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B61" s="2"/>
       <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="3"/>
+      <c r="D61" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B62" s="2"/>
       <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="3"/>
+      <c r="D62" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B63" s="2"/>
       <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="3"/>
+      <c r="D63" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B64" s="2"/>
       <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="3"/>
+      <c r="D64" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65" s="2"/>

--- a/Ashok/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Ashok/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="140">
   <si>
     <t>SlNo</t>
   </si>
@@ -377,6 +377,69 @@
   </si>
   <si>
     <t>Sub Process</t>
+  </si>
+  <si>
+    <t>24.06.2021</t>
+  </si>
+  <si>
+    <t>Embedded subprocess,parallel gateway,scripttask</t>
+  </si>
+  <si>
+    <t>Collection</t>
+  </si>
+  <si>
+    <t>camunda task</t>
+  </si>
+  <si>
+    <t>Embedded subprocess,parallel gateway task</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Script task video callback,google</t>
+  </si>
+  <si>
+    <t>video recall and practice</t>
+  </si>
+  <si>
+    <t>Regarding Task</t>
+  </si>
+  <si>
+    <t>25.06.2021</t>
+  </si>
+  <si>
+    <t>Timer start,Message start event</t>
+  </si>
+  <si>
+    <t>sets in collection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">camunda workflow </t>
+  </si>
+  <si>
+    <t>designed a workflow by using all elements in camunda</t>
+  </si>
+  <si>
+    <t>6hrs</t>
+  </si>
+  <si>
+    <t>clarified the doubt among team members</t>
+  </si>
+  <si>
+    <t>26.06.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">designed a leave approval workflow </t>
+  </si>
+  <si>
+    <t>intermediate event in boundry</t>
+  </si>
+  <si>
+    <t>7hrs</t>
+  </si>
+  <si>
+    <t>discussed reagarding task</t>
   </si>
 </sst>
 </file>
@@ -877,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1768,95 +1831,185 @@
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B65" s="2"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="3"/>
+      <c r="B65" s="2">
+        <v>17</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B66" s="2"/>
       <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="3"/>
+      <c r="D66" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B67" s="2"/>
       <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="3"/>
+      <c r="D67" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B68" s="2"/>
       <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="3"/>
+      <c r="D68" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B69" s="2"/>
       <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="3"/>
+      <c r="D69" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B70" s="2"/>
       <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="3"/>
+      <c r="D70" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B71" s="2"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="3"/>
+      <c r="B71" s="2">
+        <v>18</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B72" s="2"/>
       <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="3"/>
+      <c r="D72" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B73" s="2"/>
       <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="3"/>
+      <c r="D73" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B74" s="2"/>
       <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="3"/>
+      <c r="D74" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B75" s="2"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="3"/>
+      <c r="B75" s="2">
+        <v>19</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B76" s="2"/>
       <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="3"/>
+      <c r="D76" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B77" s="2"/>
       <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="3"/>
+      <c r="D77" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B78" s="2"/>

--- a/Ashok/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Ashok/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="150">
   <si>
     <t>SlNo</t>
   </si>
@@ -440,6 +440,36 @@
   </si>
   <si>
     <t>discussed reagarding task</t>
+  </si>
+  <si>
+    <t>28.06.2021</t>
+  </si>
+  <si>
+    <t>variables get &amp;set</t>
+  </si>
+  <si>
+    <t>camunda flow design</t>
+  </si>
+  <si>
+    <t>general meeting</t>
+  </si>
+  <si>
+    <t>meting with Bharani sir</t>
+  </si>
+  <si>
+    <t>Discussed with friends</t>
+  </si>
+  <si>
+    <t>video preparation</t>
+  </si>
+  <si>
+    <t>Camunda task</t>
+  </si>
+  <si>
+    <t>Workflow explanation video</t>
+  </si>
+  <si>
+    <t>get &amp; set variables</t>
   </si>
 </sst>
 </file>
@@ -940,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F77" sqref="F77"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2012,46 +2042,86 @@
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B78" s="2"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="3"/>
+      <c r="B78" s="2">
+        <v>20</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B79" s="2"/>
       <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="3"/>
+      <c r="D79" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B80" s="2"/>
       <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="3"/>
+      <c r="D80" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B81" s="2"/>
       <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="3"/>
+      <c r="D81" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B82" s="2"/>
       <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="3"/>
+      <c r="D82" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B83" s="2"/>
       <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="3"/>
+      <c r="D83" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B84" s="2"/>

--- a/Ashok/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Ashok/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="155">
   <si>
     <t>SlNo</t>
   </si>
@@ -470,6 +470,21 @@
   </si>
   <si>
     <t>get &amp; set variables</t>
+  </si>
+  <si>
+    <t>29.06.2021</t>
+  </si>
+  <si>
+    <t>REST API</t>
+  </si>
+  <si>
+    <t>Camunda practice</t>
+  </si>
+  <si>
+    <t>recall the servlet basics</t>
+  </si>
+  <si>
+    <t>variables in same flow and in different flow</t>
   </si>
 </sst>
 </file>
@@ -970,8 +985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="F83" sqref="F83"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2124,39 +2139,73 @@
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B84" s="2"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="3"/>
+      <c r="B84" s="2">
+        <v>21</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B85" s="2"/>
       <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="3"/>
+      <c r="D85" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B86" s="2"/>
       <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="3"/>
+      <c r="D86" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B87" s="2"/>
       <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="3"/>
+      <c r="D87" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B88" s="2"/>
       <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="3"/>
+      <c r="D88" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B89" s="2"/>

--- a/Ashok/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Ashok/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="167">
   <si>
     <t>SlNo</t>
   </si>
@@ -485,6 +485,42 @@
   </si>
   <si>
     <t>variables in same flow and in different flow</t>
+  </si>
+  <si>
+    <t>30.06.2021</t>
+  </si>
+  <si>
+    <t>Deploy project using delegate</t>
+  </si>
+  <si>
+    <t>Servlet login page design</t>
+  </si>
+  <si>
+    <t>Software install</t>
+  </si>
+  <si>
+    <t>Installation</t>
+  </si>
+  <si>
+    <t>Camunda Timesheet</t>
+  </si>
+  <si>
+    <t>Timesheet for camunda Training</t>
+  </si>
+  <si>
+    <t>Oracle installation</t>
+  </si>
+  <si>
+    <t>Depndence injection,IOC</t>
+  </si>
+  <si>
+    <t>Oracle installation Error check</t>
+  </si>
+  <si>
+    <t>Maven project,Container</t>
+  </si>
+  <si>
+    <t>Camunda task completion</t>
   </si>
 </sst>
 </file>
@@ -985,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="F88" sqref="F88"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2208,60 +2244,112 @@
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B89" s="2"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="3"/>
+      <c r="B89" s="2">
+        <v>22</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B90" s="2"/>
       <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="3"/>
+      <c r="D90" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B91" s="2"/>
       <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="3"/>
+      <c r="D91" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B92" s="2"/>
       <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="3"/>
+      <c r="D92" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B93" s="2"/>
       <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="3"/>
+      <c r="D93" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B94" s="2"/>
       <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="3"/>
+      <c r="D94" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B95" s="2"/>
       <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="3"/>
+      <c r="D95" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B96" s="2"/>
       <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="3"/>
+      <c r="D96" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B97" s="2"/>

--- a/Ashok/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Ashok/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="168">
   <si>
     <t>SlNo</t>
   </si>
@@ -521,6 +521,9 @@
   </si>
   <si>
     <t>Camunda task completion</t>
+  </si>
+  <si>
+    <t>01.07.2021</t>
   </si>
 </sst>
 </file>
@@ -1021,8 +1024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="F96" sqref="F96"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2352,9 +2355,15 @@
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B97" s="2"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
+      <c r="B97" s="2">
+        <v>23</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="E97" s="1"/>
       <c r="F97" s="3"/>
     </row>

--- a/Ashok/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Ashok/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="191">
   <si>
     <t>SlNo</t>
   </si>
@@ -524,6 +524,75 @@
   </si>
   <si>
     <t>01.07.2021</t>
+  </si>
+  <si>
+    <t>Cofiguration &amp; Spring boot setup</t>
+  </si>
+  <si>
+    <t>Servlet jdbc connectivity</t>
+  </si>
+  <si>
+    <t>Recall the task</t>
+  </si>
+  <si>
+    <t>Servlet concept</t>
+  </si>
+  <si>
+    <t>Doubt clarrification</t>
+  </si>
+  <si>
+    <t>02.07.2021</t>
+  </si>
+  <si>
+    <t>DMN,Polling,Pulishing,lock</t>
+  </si>
+  <si>
+    <t>Spring concept</t>
+  </si>
+  <si>
+    <t>Oracle issue</t>
+  </si>
+  <si>
+    <t>To correct oracle issue</t>
+  </si>
+  <si>
+    <t>Tried to explore Different task</t>
+  </si>
+  <si>
+    <t>3hrss</t>
+  </si>
+  <si>
+    <t>Discussed with team</t>
+  </si>
+  <si>
+    <t>03.07.2021</t>
+  </si>
+  <si>
+    <t>Spring using sts,,eclise,doubt clarrification</t>
+  </si>
+  <si>
+    <t>05.07.2021</t>
+  </si>
+  <si>
+    <t>Developing spring boot project</t>
+  </si>
+  <si>
+    <t>practiced the concept</t>
+  </si>
+  <si>
+    <t>Camunda Question bank</t>
+  </si>
+  <si>
+    <t>Find the Answer for Camunda question</t>
+  </si>
+  <si>
+    <t>Discussed with team regarding answer</t>
+  </si>
+  <si>
+    <t>1hrs</t>
+  </si>
+  <si>
+    <t>Recall the concept in camunda</t>
   </si>
 </sst>
 </file>
@@ -1025,7 +1094,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="E97" sqref="E97"/>
+      <selection activeCell="F113" sqref="F113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2364,120 +2433,232 @@
       <c r="D97" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E97" s="1"/>
-      <c r="F97" s="3"/>
+      <c r="E97" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B98" s="2"/>
       <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="3"/>
+      <c r="D98" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B99" s="2"/>
       <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="3"/>
+      <c r="D99" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B100" s="2"/>
       <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="3"/>
+      <c r="D100" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B101" s="2"/>
       <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="3"/>
+      <c r="D101" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B102" s="2"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="3"/>
+      <c r="B102" s="2">
+        <v>24</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B103" s="2"/>
       <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="3"/>
+      <c r="D103" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B104" s="2"/>
       <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="3"/>
+      <c r="D104" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B105" s="2"/>
       <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="3"/>
+      <c r="D105" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B106" s="2"/>
       <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="3"/>
+      <c r="D106" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B107" s="2"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="3"/>
+      <c r="B107" s="2">
+        <v>25</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B108" s="2"/>
       <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="3"/>
+      <c r="D108" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B109" s="2"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="3"/>
+      <c r="B109" s="2">
+        <v>26</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B110" s="2"/>
       <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="3"/>
+      <c r="D110" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B111" s="2"/>
       <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
-      <c r="F111" s="3"/>
+      <c r="D111" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B112" s="2"/>
       <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
-      <c r="F112" s="3"/>
+      <c r="D112" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B113" s="2"/>
       <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
-      <c r="F113" s="3"/>
+      <c r="D113" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B114" s="2"/>

--- a/Ashok/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
+++ b/Ashok/Timesheet/Schwall_TraineeName_Timesheet_June_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="192">
   <si>
     <t>SlNo</t>
   </si>
@@ -593,6 +593,9 @@
   </si>
   <si>
     <t>Recall the concept in camunda</t>
+  </si>
+  <si>
+    <t>06.07.2021</t>
   </si>
 </sst>
 </file>
@@ -1094,7 +1097,7 @@
   <dimension ref="B1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="F113" sqref="F113"/>
+      <selection activeCell="F114" sqref="F114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2661,11 +2664,19 @@
       </c>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B114" s="2"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
+      <c r="B114" s="2">
+        <v>27</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="E114" s="1"/>
-      <c r="F114" s="3"/>
+      <c r="F114" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B115" s="2"/>
